--- a/inst/extdata/boreholefuncmwi.xlsx
+++ b/inst/extdata/boreholefuncmwi.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,9 +80,6 @@
     <t xml:space="preserve">&gt;20 km away</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Community member</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Chewere</t>
@@ -650,14 +644,14 @@
       <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -668,7 +662,7 @@
         <v>45053</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -676,7 +670,7 @@
         <v>50000</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
@@ -699,14 +693,14 @@
       <c r="N3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -717,7 +711,7 @@
         <v>45054</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -725,7 +719,7 @@
         <v>50000</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
         <v>59</v>
@@ -748,14 +742,14 @@
       <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>22</v>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -776,16 +770,16 @@
         <v>600000</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" t="n">
         <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
         <v>200</v>
@@ -797,16 +791,16 @@
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -817,7 +811,7 @@
         <v>45056</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>15</v>
@@ -835,10 +829,10 @@
         <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
         <v>200</v>
@@ -850,16 +844,16 @@
         <v>33</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -870,7 +864,7 @@
         <v>45056</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
         <v>10</v>
@@ -882,16 +876,16 @@
         <v>150000</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
         <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
@@ -905,14 +899,14 @@
       <c r="N7" t="s">
         <v>21</v>
       </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -923,7 +917,7 @@
         <v>45056</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -931,7 +925,7 @@
         <v>60000</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
         <v>37</v>
@@ -954,14 +948,14 @@
       <c r="N8" t="s">
         <v>21</v>
       </c>
-      <c r="O8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>22</v>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -972,7 +966,7 @@
         <v>45056</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>15</v>
@@ -984,7 +978,7 @@
         <v>60000</v>
       </c>
       <c r="G9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
         <v>24</v>
@@ -1005,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1025,7 +1019,7 @@
         <v>45056</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
         <v>15</v>
@@ -1035,16 +1029,16 @@
         <v>200000</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" t="n">
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" t="n">
         <v>200</v>
@@ -1056,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1076,7 +1070,7 @@
         <v>45056</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -1088,16 +1082,16 @@
         <v>30000</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
         <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" t="n">
         <v>200</v>
@@ -1109,16 +1103,16 @@
         <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1129,7 +1123,7 @@
         <v>45056</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1137,7 +1131,7 @@
         <v>100000</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
         <v>17</v>
@@ -1158,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1178,7 +1172,7 @@
         <v>45060</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
         <v>15</v>
@@ -1190,16 +1184,16 @@
         <v>150000</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" t="n">
         <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K13" t="n">
         <v>200</v>
@@ -1211,16 +1205,16 @@
         <v>65</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1231,7 +1225,7 @@
         <v>45049</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="n">
         <v>10</v>
@@ -1243,16 +1237,16 @@
         <v>15000</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
         <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14" t="n">
         <v>200</v>
@@ -1264,16 +1258,16 @@
         <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1284,7 +1278,7 @@
         <v>45049</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
         <v>10</v>
@@ -1296,16 +1290,16 @@
         <v>120000</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H15" t="n">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15" t="n">
         <v>500</v>
@@ -1317,16 +1311,16 @@
         <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1331,7 @@
         <v>45049</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="n">
         <v>10</v>
@@ -1347,16 +1341,16 @@
         <v>50000</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
         <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16" t="n">
         <v>2000</v>
@@ -1368,16 +1362,16 @@
         <v>30</v>
       </c>
       <c r="N16" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1388,7 +1382,7 @@
         <v>45050</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
@@ -1400,16 +1394,16 @@
         <v>120000</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" t="n">
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" t="n">
         <v>500</v>
@@ -1421,16 +1415,16 @@
         <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1441,7 +1435,7 @@
         <v>45050</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
         <v>10</v>
@@ -1453,16 +1447,16 @@
         <v>70000</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" t="n">
         <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" t="n">
         <v>200</v>
@@ -1474,16 +1468,16 @@
         <v>10</v>
       </c>
       <c r="N18" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1494,7 +1488,7 @@
         <v>45050</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>10</v>
@@ -1506,16 +1500,16 @@
         <v>300000</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H19" t="n">
         <v>1320</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K19" t="n">
         <v>500</v>
@@ -1527,16 +1521,16 @@
         <v>1320</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1547,7 +1541,7 @@
         <v>45050</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>10</v>
@@ -1559,16 +1553,16 @@
         <v>250000</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20" t="n">
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20" t="n">
         <v>500</v>
@@ -1580,16 +1574,16 @@
         <v>18</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1600,7 +1594,7 @@
         <v>45050</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="n">
         <v>10</v>
@@ -1612,16 +1606,16 @@
         <v>200000</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21" t="n">
         <v>22</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21" t="n">
         <v>500</v>
@@ -1633,16 +1627,16 @@
         <v>19</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1653,7 +1647,7 @@
         <v>45050</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" t="n">
         <v>10</v>
@@ -1665,16 +1659,16 @@
         <v>120000</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H22" t="n">
         <v>22</v>
       </c>
       <c r="I22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K22" t="n">
         <v>500</v>
@@ -1686,16 +1680,16 @@
         <v>20</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1706,7 +1700,7 @@
         <v>45050</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
@@ -1718,16 +1712,16 @@
         <v>150000</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H23" t="n">
         <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K23" t="n">
         <v>500</v>
@@ -1739,16 +1733,16 @@
         <v>15</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1759,7 +1753,7 @@
         <v>45050</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>10</v>
@@ -1771,16 +1765,16 @@
         <v>140000</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24" t="n">
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
         <v>300</v>
@@ -1792,16 +1786,16 @@
         <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1812,13 +1806,13 @@
         <v>45050</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H25" t="n">
         <v>18</v>
@@ -1837,16 +1831,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1857,7 +1851,7 @@
         <v>45050</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
         <v>10</v>
@@ -1869,16 +1863,16 @@
         <v>135000</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H26" t="n">
         <v>28</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1890,16 +1884,16 @@
         <v>24</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1910,7 +1904,7 @@
         <v>45050</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
@@ -1922,16 +1916,16 @@
         <v>100000</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H27" t="n">
         <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K27" t="n">
         <v>200</v>
@@ -1943,16 +1937,16 @@
         <v>29</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1963,7 +1957,7 @@
         <v>45050</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" t="n">
         <v>10</v>
@@ -1975,16 +1969,16 @@
         <v>150000</v>
       </c>
       <c r="G28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H28" t="n">
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28" t="n">
         <v>300</v>
@@ -1996,16 +1990,16 @@
         <v>25</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2016,7 +2010,7 @@
         <v>45051</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" t="n">
         <v>10</v>
@@ -2028,16 +2022,16 @@
         <v>130000</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H29" t="n">
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29" t="n">
         <v>500</v>
@@ -2049,16 +2043,16 @@
         <v>18</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
-      </c>
-      <c r="O29" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2069,7 +2063,7 @@
         <v>45051</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -2077,7 +2071,7 @@
         <v>7000</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H30" t="n">
         <v>18</v>
@@ -2098,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" t="s">
-        <v>22</v>
-      </c>
-      <c r="P30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2118,7 +2112,7 @@
         <v>45051</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>10</v>
@@ -2130,16 +2124,16 @@
         <v>250000</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
         <v>27</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31" t="n">
         <v>500</v>
@@ -2151,16 +2145,16 @@
         <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>30</v>
-      </c>
-      <c r="O31" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2171,7 +2165,7 @@
         <v>45051</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" t="n">
         <v>10</v>
@@ -2183,16 +2177,16 @@
         <v>200000</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H32" t="n">
         <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32" t="n">
         <v>500</v>
@@ -2204,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="N32" t="s">
-        <v>30</v>
-      </c>
-      <c r="O32" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2224,7 +2218,7 @@
         <v>45051</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
         <v>10</v>
@@ -2236,16 +2230,16 @@
         <v>140000</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H33" t="n">
         <v>35</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2257,16 +2251,16 @@
         <v>30</v>
       </c>
       <c r="N33" t="s">
-        <v>30</v>
-      </c>
-      <c r="O33" t="s">
-        <v>22</v>
-      </c>
-      <c r="P33" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2277,7 +2271,7 @@
         <v>45052</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
         <v>10</v>
@@ -2289,16 +2283,16 @@
         <v>200000</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" t="n">
         <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K34" t="n">
         <v>1000</v>
@@ -2310,16 +2304,16 @@
         <v>30</v>
       </c>
       <c r="N34" t="s">
-        <v>40</v>
-      </c>
-      <c r="O34" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2330,7 +2324,7 @@
         <v>45052</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
         <v>10</v>
@@ -2342,16 +2336,16 @@
         <v>160000</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H35" t="n">
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35" t="n">
         <v>500</v>
@@ -2363,16 +2357,16 @@
         <v>28</v>
       </c>
       <c r="N35" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" t="s">
-        <v>22</v>
-      </c>
-      <c r="P35" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2383,7 +2377,7 @@
         <v>45052</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>10</v>
@@ -2395,16 +2389,16 @@
         <v>300000</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H36" t="n">
         <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K36" t="n">
         <v>1000</v>
@@ -2416,16 +2410,16 @@
         <v>37</v>
       </c>
       <c r="N36" t="s">
-        <v>40</v>
-      </c>
-      <c r="O36" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2436,7 +2430,7 @@
         <v>45052</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" t="n">
         <v>5</v>
@@ -2446,16 +2440,16 @@
         <v>60000</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H37" t="n">
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K37" t="n">
         <v>300</v>
@@ -2467,16 +2461,16 @@
         <v>10</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
-      </c>
-      <c r="O37" t="s">
-        <v>22</v>
-      </c>
-      <c r="P37" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2487,7 +2481,7 @@
         <v>45052</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -2495,7 +2489,7 @@
         <v>10000</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H38" t="n">
         <v>10</v>
@@ -2516,16 +2510,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
-      </c>
-      <c r="O38" t="s">
-        <v>22</v>
-      </c>
-      <c r="P38" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2536,7 +2530,7 @@
         <v>45052</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" t="n">
         <v>10</v>
@@ -2548,16 +2542,16 @@
         <v>250000</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H39" t="n">
         <v>35</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39" t="n">
         <v>500</v>
@@ -2569,16 +2563,16 @@
         <v>30</v>
       </c>
       <c r="N39" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" t="s">
-        <v>22</v>
-      </c>
-      <c r="P39" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2589,7 +2583,7 @@
         <v>45052</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -2597,7 +2591,7 @@
         <v>35000</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H40" t="n">
         <v>12</v>
@@ -2618,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" t="s">
-        <v>22</v>
-      </c>
-      <c r="P40" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2638,7 +2632,7 @@
         <v>45052</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>10</v>
@@ -2650,16 +2644,16 @@
         <v>200000</v>
       </c>
       <c r="G41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2671,16 +2665,16 @@
         <v>15</v>
       </c>
       <c r="N41" t="s">
-        <v>30</v>
-      </c>
-      <c r="O41" t="s">
-        <v>22</v>
-      </c>
-      <c r="P41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2691,7 +2685,7 @@
         <v>45052</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>10</v>
@@ -2703,16 +2697,16 @@
         <v>300000</v>
       </c>
       <c r="G42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H42" t="n">
         <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42" t="n">
         <v>1000</v>
@@ -2724,16 +2718,16 @@
         <v>25</v>
       </c>
       <c r="N42" t="s">
-        <v>30</v>
-      </c>
-      <c r="O42" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2744,7 +2738,7 @@
         <v>45052</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43" t="n">
         <v>10</v>
@@ -2756,16 +2750,16 @@
         <v>200000</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H43" t="n">
         <v>34</v>
       </c>
       <c r="I43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K43" t="n">
         <v>1000</v>
@@ -2777,16 +2771,16 @@
         <v>29</v>
       </c>
       <c r="N43" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" t="s">
-        <v>22</v>
-      </c>
-      <c r="P43" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2809,16 +2803,16 @@
         <v>200000</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H44" t="n">
         <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44" t="n">
         <v>2000</v>
@@ -2830,16 +2824,16 @@
         <v>43</v>
       </c>
       <c r="N44" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" t="s">
-        <v>22</v>
-      </c>
-      <c r="P44" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2850,7 +2844,7 @@
         <v>45052</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45" t="n">
         <v>10</v>
@@ -2862,16 +2856,16 @@
         <v>250000</v>
       </c>
       <c r="G45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H45" t="n">
         <v>28</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K45" t="n">
         <v>500</v>
@@ -2883,16 +2877,16 @@
         <v>23</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" t="s">
-        <v>22</v>
-      </c>
-      <c r="P45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2903,7 +2897,7 @@
         <v>45052</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D46" t="n">
         <v>10</v>
@@ -2915,16 +2909,16 @@
         <v>240000</v>
       </c>
       <c r="G46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H46" t="n">
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46" t="n">
         <v>1000</v>
@@ -2936,16 +2930,16 @@
         <v>18</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
-      </c>
-      <c r="O46" t="s">
-        <v>22</v>
-      </c>
-      <c r="P46" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2956,7 +2950,7 @@
         <v>45052</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D47" t="n">
         <v>10</v>
@@ -2968,16 +2962,16 @@
         <v>250000</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H47" t="n">
         <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K47" t="n">
         <v>500</v>
@@ -2989,16 +2983,16 @@
         <v>20</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
-      </c>
-      <c r="O47" t="s">
-        <v>22</v>
-      </c>
-      <c r="P47" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3009,7 +3003,7 @@
         <v>45052</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D48" t="n">
         <v>10</v>
@@ -3021,16 +3015,16 @@
         <v>150000</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H48" t="n">
         <v>28</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48" t="n">
         <v>500</v>
@@ -3042,16 +3036,16 @@
         <v>18</v>
       </c>
       <c r="N48" t="s">
-        <v>30</v>
-      </c>
-      <c r="O48" t="s">
-        <v>22</v>
-      </c>
-      <c r="P48" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3062,7 +3056,7 @@
         <v>45052</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>10</v>
@@ -3074,16 +3068,16 @@
         <v>230000</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H49" t="n">
         <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K49" t="n">
         <v>500</v>
@@ -3095,16 +3089,16 @@
         <v>22</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
-      </c>
-      <c r="O49" t="s">
-        <v>22</v>
-      </c>
-      <c r="P49" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3115,7 +3109,7 @@
         <v>45052</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>10</v>
@@ -3127,16 +3121,16 @@
         <v>135000</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H50" t="n">
         <v>1125</v>
       </c>
       <c r="I50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50" t="n">
         <v>500</v>
@@ -3148,16 +3142,16 @@
         <v>1009</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" t="s">
-        <v>22</v>
-      </c>
-      <c r="P50" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3168,7 +3162,7 @@
         <v>45052</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D51" t="n">
         <v>10</v>
@@ -3180,16 +3174,16 @@
         <v>140000</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H51" t="n">
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K51" t="n">
         <v>2000</v>
@@ -3201,16 +3195,16 @@
         <v>15</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
-      </c>
-      <c r="O51" t="s">
-        <v>22</v>
-      </c>
-      <c r="P51" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -3221,7 +3215,7 @@
         <v>45052</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D52" t="n">
         <v>10</v>
@@ -3233,16 +3227,16 @@
         <v>130000</v>
       </c>
       <c r="G52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H52" t="n">
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K52" t="n">
         <v>1000</v>
@@ -3254,16 +3248,16 @@
         <v>15</v>
       </c>
       <c r="N52" t="s">
-        <v>30</v>
-      </c>
-      <c r="O52" t="s">
-        <v>22</v>
-      </c>
-      <c r="P52" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3274,7 +3268,7 @@
         <v>45053</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D53" t="n">
         <v>10</v>
@@ -3286,16 +3280,16 @@
         <v>150000</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H53" t="n">
         <v>23</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K53" t="n">
         <v>500</v>
@@ -3307,16 +3301,16 @@
         <v>18</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
-      </c>
-      <c r="O53" t="s">
-        <v>22</v>
-      </c>
-      <c r="P53" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3327,7 +3321,7 @@
         <v>45059</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D54" t="n">
         <v>10</v>
@@ -3339,16 +3333,16 @@
         <v>150000</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H54" t="n">
         <v>45</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54" t="n">
         <v>500</v>
@@ -3360,16 +3354,16 @@
         <v>39</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
-      </c>
-      <c r="O54" t="s">
-        <v>22</v>
-      </c>
-      <c r="P54" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -3380,7 +3374,7 @@
         <v>45059</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D55" t="n">
         <v>10</v>
@@ -3392,16 +3386,16 @@
         <v>130000</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H55" t="n">
         <v>23</v>
       </c>
       <c r="I55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K55" t="n">
         <v>1000</v>
@@ -3413,16 +3407,16 @@
         <v>20</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
-      </c>
-      <c r="O55" t="s">
-        <v>22</v>
-      </c>
-      <c r="P55" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3433,7 +3427,7 @@
         <v>45059</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>10</v>
@@ -3445,16 +3439,16 @@
         <v>370000</v>
       </c>
       <c r="G56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H56" t="n">
         <v>1105</v>
       </c>
       <c r="I56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K56" t="n">
         <v>500</v>
@@ -3466,16 +3460,16 @@
         <v>1100</v>
       </c>
       <c r="N56" t="s">
-        <v>30</v>
-      </c>
-      <c r="O56" t="s">
-        <v>26</v>
-      </c>
-      <c r="P56" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3486,7 +3480,7 @@
         <v>45059</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>10</v>
@@ -3496,16 +3490,16 @@
         <v>140000</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H57" t="n">
         <v>33</v>
       </c>
       <c r="I57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57" t="n">
         <v>500</v>
@@ -3517,16 +3511,16 @@
         <v>29</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
-      </c>
-      <c r="O57" t="s">
-        <v>22</v>
-      </c>
-      <c r="P57" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -3537,7 +3531,7 @@
         <v>45059</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D58" t="n">
         <v>10</v>
@@ -3549,16 +3543,16 @@
         <v>120000</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H58" t="n">
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K58" t="n">
         <v>500</v>
@@ -3570,16 +3564,16 @@
         <v>28</v>
       </c>
       <c r="N58" t="s">
-        <v>30</v>
-      </c>
-      <c r="O58" t="s">
-        <v>22</v>
-      </c>
-      <c r="P58" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3590,7 +3584,7 @@
         <v>45059</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D59" t="n">
         <v>10</v>
@@ -3602,16 +3596,16 @@
         <v>150000</v>
       </c>
       <c r="G59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H59" t="n">
         <v>31</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J59" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K59" t="n">
         <v>500</v>
@@ -3623,16 +3617,16 @@
         <v>25</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
-      </c>
-      <c r="O59" t="s">
-        <v>22</v>
-      </c>
-      <c r="P59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3643,7 +3637,7 @@
         <v>45059</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>10</v>
@@ -3655,16 +3649,16 @@
         <v>180000</v>
       </c>
       <c r="G60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H60" t="n">
         <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K60" t="n">
         <v>500</v>
@@ -3676,16 +3670,16 @@
         <v>20</v>
       </c>
       <c r="N60" t="s">
-        <v>30</v>
-      </c>
-      <c r="O60" t="s">
-        <v>22</v>
-      </c>
-      <c r="P60" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3696,7 +3690,7 @@
         <v>45060</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
         <v>10</v>
@@ -3708,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H61" t="n">
         <v>34</v>
@@ -3729,16 +3723,16 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>56</v>
-      </c>
-      <c r="O61" t="s">
-        <v>22</v>
-      </c>
-      <c r="P61" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3749,7 +3743,7 @@
         <v>45060</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>10</v>
@@ -3761,16 +3755,16 @@
         <v>170000</v>
       </c>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H62" t="n">
         <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K62" t="n">
         <v>500</v>
@@ -3782,16 +3776,16 @@
         <v>70</v>
       </c>
       <c r="N62" t="s">
-        <v>30</v>
-      </c>
-      <c r="O62" t="s">
-        <v>22</v>
-      </c>
-      <c r="P62" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3802,7 +3796,7 @@
         <v>45060</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>10</v>
@@ -3814,16 +3808,16 @@
         <v>370000</v>
       </c>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H63" t="n">
         <v>50</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K63" t="n">
         <v>2000</v>
@@ -3835,16 +3829,16 @@
         <v>40</v>
       </c>
       <c r="N63" t="s">
-        <v>30</v>
-      </c>
-      <c r="O63" t="s">
-        <v>22</v>
-      </c>
-      <c r="P63" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3855,7 +3849,7 @@
         <v>45060</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>10</v>
@@ -3867,16 +3861,16 @@
         <v>500000</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H64" t="n">
         <v>842</v>
       </c>
       <c r="I64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K64" t="n">
         <v>500</v>
@@ -3888,16 +3882,16 @@
         <v>842</v>
       </c>
       <c r="N64" t="s">
-        <v>30</v>
-      </c>
-      <c r="O64" t="s">
-        <v>22</v>
-      </c>
-      <c r="P64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3908,7 +3902,7 @@
         <v>45060</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
         <v>10</v>
@@ -3920,16 +3914,16 @@
         <v>100000</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H65" t="n">
         <v>28</v>
       </c>
       <c r="I65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K65" t="n">
         <v>300</v>
@@ -3941,16 +3935,16 @@
         <v>19</v>
       </c>
       <c r="N65" t="s">
-        <v>30</v>
-      </c>
-      <c r="O65" t="s">
-        <v>22</v>
-      </c>
-      <c r="P65" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3961,7 +3955,7 @@
         <v>45060</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D66" t="n">
         <v>10</v>
@@ -3973,16 +3967,16 @@
         <v>60000</v>
       </c>
       <c r="G66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H66" t="n">
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K66" t="n">
         <v>400</v>
@@ -3994,16 +3988,16 @@
         <v>15</v>
       </c>
       <c r="N66" t="s">
-        <v>30</v>
-      </c>
-      <c r="O66" t="s">
-        <v>22</v>
-      </c>
-      <c r="P66" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -4014,7 +4008,7 @@
         <v>45060</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>10</v>
@@ -4026,16 +4020,16 @@
         <v>160000</v>
       </c>
       <c r="G67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H67" t="n">
         <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K67" t="n">
         <v>600</v>
@@ -4047,16 +4041,16 @@
         <v>25</v>
       </c>
       <c r="N67" t="s">
-        <v>30</v>
-      </c>
-      <c r="O67" t="s">
-        <v>22</v>
-      </c>
-      <c r="P67" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4067,7 +4061,7 @@
         <v>45060</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
         <v>10</v>
@@ -4079,16 +4073,16 @@
         <v>1330450</v>
       </c>
       <c r="G68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H68" t="n">
         <v>450</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K68" t="n">
         <v>500</v>
@@ -4100,16 +4094,16 @@
         <v>4508</v>
       </c>
       <c r="N68" t="s">
-        <v>30</v>
-      </c>
-      <c r="O68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P68" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -4120,7 +4114,7 @@
         <v>45060</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
         <v>10</v>
@@ -4132,16 +4126,16 @@
         <v>350008</v>
       </c>
       <c r="G69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H69" t="n">
         <v>35</v>
       </c>
       <c r="I69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K69" t="n">
         <v>2000</v>
@@ -4153,16 +4147,16 @@
         <v>30</v>
       </c>
       <c r="N69" t="s">
-        <v>30</v>
-      </c>
-      <c r="O69" t="s">
-        <v>22</v>
-      </c>
-      <c r="P69" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -4173,7 +4167,7 @@
         <v>45060</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -4181,7 +4175,7 @@
         <v>60000</v>
       </c>
       <c r="G70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H70" t="n">
         <v>19</v>
@@ -4202,16 +4196,16 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>30</v>
-      </c>
-      <c r="O70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P70" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4222,7 +4216,7 @@
         <v>45060</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -4230,16 +4224,16 @@
         <v>30000</v>
       </c>
       <c r="G71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H71" t="n">
         <v>60</v>
       </c>
       <c r="I71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K71" t="n">
         <v>500</v>
@@ -4251,16 +4245,16 @@
         <v>50</v>
       </c>
       <c r="N71" t="s">
-        <v>30</v>
-      </c>
-      <c r="O71" t="s">
-        <v>22</v>
-      </c>
-      <c r="P71" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -4271,7 +4265,7 @@
         <v>45060</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D72" t="n">
         <v>10</v>
@@ -4283,16 +4277,16 @@
         <v>250000</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H72" t="n">
         <v>30</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K72" t="n">
         <v>600</v>
@@ -4304,16 +4298,16 @@
         <v>26</v>
       </c>
       <c r="N72" t="s">
-        <v>30</v>
-      </c>
-      <c r="O72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P72" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -4324,7 +4318,7 @@
         <v>45060</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D73" t="n">
         <v>10</v>
@@ -4336,16 +4330,16 @@
         <v>150000</v>
       </c>
       <c r="G73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H73" t="n">
         <v>34</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K73" t="n">
         <v>600</v>
@@ -4357,16 +4351,16 @@
         <v>25</v>
       </c>
       <c r="N73" t="s">
-        <v>30</v>
-      </c>
-      <c r="O73" t="s">
-        <v>22</v>
-      </c>
-      <c r="P73" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4377,7 +4371,7 @@
         <v>45060</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D74" t="n">
         <v>10</v>
@@ -4389,16 +4383,16 @@
         <v>160000</v>
       </c>
       <c r="G74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H74" t="n">
         <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -4410,16 +4404,16 @@
         <v>13</v>
       </c>
       <c r="N74" t="s">
-        <v>30</v>
-      </c>
-      <c r="O74" t="s">
-        <v>22</v>
-      </c>
-      <c r="P74" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -4430,7 +4424,7 @@
         <v>45060</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
@@ -4438,7 +4432,7 @@
         <v>150000</v>
       </c>
       <c r="G75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H75" t="n">
         <v>13</v>
@@ -4459,16 +4453,16 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>30</v>
-      </c>
-      <c r="O75" t="s">
-        <v>22</v>
-      </c>
-      <c r="P75" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4479,7 +4473,7 @@
         <v>45060</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D76" t="n">
         <v>10</v>
@@ -4491,16 +4485,16 @@
         <v>150000</v>
       </c>
       <c r="G76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H76" t="n">
         <v>43</v>
       </c>
       <c r="I76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -4512,16 +4506,16 @@
         <v>35</v>
       </c>
       <c r="N76" t="s">
-        <v>30</v>
-      </c>
-      <c r="O76" t="s">
-        <v>22</v>
-      </c>
-      <c r="P76" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4532,7 +4526,7 @@
         <v>45060</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D77" t="n">
         <v>10</v>
@@ -4544,16 +4538,16 @@
         <v>150000</v>
       </c>
       <c r="G77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H77" t="n">
         <v>35</v>
       </c>
       <c r="I77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K77" t="n">
         <v>500</v>
@@ -4565,16 +4559,16 @@
         <v>28</v>
       </c>
       <c r="N77" t="s">
-        <v>30</v>
-      </c>
-      <c r="O77" t="s">
-        <v>22</v>
-      </c>
-      <c r="P77" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4585,7 +4579,7 @@
         <v>45060</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D78" t="n">
         <v>10</v>
@@ -4597,16 +4591,16 @@
         <v>350000</v>
       </c>
       <c r="G78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H78" t="n">
         <v>946</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78" t="n">
         <v>500</v>
@@ -4618,16 +4612,16 @@
         <v>930</v>
       </c>
       <c r="N78" t="s">
-        <v>30</v>
-      </c>
-      <c r="O78" t="s">
-        <v>22</v>
-      </c>
-      <c r="P78" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4638,7 +4632,7 @@
         <v>45067</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
@@ -4650,16 +4644,16 @@
         <v>250000</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H79" t="n">
         <v>21</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K79" t="n">
         <v>500</v>
@@ -4671,16 +4665,16 @@
         <v>19</v>
       </c>
       <c r="N79" t="s">
-        <v>40</v>
-      </c>
-      <c r="O79" t="s">
-        <v>22</v>
-      </c>
-      <c r="P79" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4691,7 +4685,7 @@
         <v>45067</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D80" t="n">
         <v>10</v>
@@ -4703,16 +4697,16 @@
         <v>250000</v>
       </c>
       <c r="G80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H80" t="n">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4724,16 +4718,16 @@
         <v>16</v>
       </c>
       <c r="N80" t="s">
-        <v>40</v>
-      </c>
-      <c r="O80" t="s">
-        <v>22</v>
-      </c>
-      <c r="P80" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -4744,7 +4738,7 @@
         <v>45067</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D81" t="n">
         <v>10</v>
@@ -4756,16 +4750,16 @@
         <v>260000</v>
       </c>
       <c r="G81" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H81" t="n">
         <v>30</v>
       </c>
       <c r="I81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K81" t="n">
         <v>500</v>
@@ -4777,16 +4771,16 @@
         <v>25</v>
       </c>
       <c r="N81" t="s">
-        <v>40</v>
-      </c>
-      <c r="O81" t="s">
-        <v>22</v>
-      </c>
-      <c r="P81" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4797,7 +4791,7 @@
         <v>45067</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
         <v>10</v>
@@ -4809,16 +4803,16 @@
         <v>260000</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H82" t="n">
         <v>30</v>
       </c>
       <c r="I82" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K82" t="n">
         <v>500</v>
@@ -4830,16 +4824,16 @@
         <v>28</v>
       </c>
       <c r="N82" t="s">
-        <v>40</v>
-      </c>
-      <c r="O82" t="s">
-        <v>22</v>
-      </c>
-      <c r="P82" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4850,7 +4844,7 @@
         <v>45067</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D83" t="n">
         <v>10</v>
@@ -4862,16 +4856,16 @@
         <v>450000</v>
       </c>
       <c r="G83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H83" t="n">
         <v>813</v>
       </c>
       <c r="I83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K83" t="n">
         <v>500</v>
@@ -4883,16 +4877,16 @@
         <v>790</v>
       </c>
       <c r="N83" t="s">
-        <v>40</v>
-      </c>
-      <c r="O83" t="s">
-        <v>22</v>
-      </c>
-      <c r="P83" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -4903,7 +4897,7 @@
         <v>45067</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
         <v>10</v>
@@ -4915,16 +4909,16 @@
         <v>150000</v>
       </c>
       <c r="G84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H84" t="n">
         <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K84" t="n">
         <v>500</v>
@@ -4936,16 +4930,16 @@
         <v>27</v>
       </c>
       <c r="N84" t="s">
-        <v>40</v>
-      </c>
-      <c r="O84" t="s">
-        <v>22</v>
-      </c>
-      <c r="P84" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4956,7 +4950,7 @@
         <v>45067</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D85" t="n">
         <v>10</v>
@@ -4968,16 +4962,16 @@
         <v>120000</v>
       </c>
       <c r="G85" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H85" t="n">
         <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K85" t="n">
         <v>500</v>
@@ -4989,16 +4983,16 @@
         <v>12</v>
       </c>
       <c r="N85" t="s">
-        <v>40</v>
-      </c>
-      <c r="O85" t="s">
-        <v>22</v>
-      </c>
-      <c r="P85" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -5009,7 +5003,7 @@
         <v>45067</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
         <v>10</v>
@@ -5021,16 +5015,16 @@
         <v>240000</v>
       </c>
       <c r="G86" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H86" t="n">
         <v>19</v>
       </c>
       <c r="I86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K86" t="n">
         <v>500</v>
@@ -5042,16 +5036,16 @@
         <v>17</v>
       </c>
       <c r="N86" t="s">
-        <v>40</v>
-      </c>
-      <c r="O86" t="s">
-        <v>22</v>
-      </c>
-      <c r="P86" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -5062,7 +5056,7 @@
         <v>45067</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D87" t="n">
         <v>10</v>
@@ -5074,16 +5068,16 @@
         <v>120000</v>
       </c>
       <c r="G87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H87" t="n">
         <v>19</v>
       </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K87" t="n">
         <v>1000</v>
@@ -5095,16 +5089,16 @@
         <v>17</v>
       </c>
       <c r="N87" t="s">
-        <v>40</v>
-      </c>
-      <c r="O87" t="s">
-        <v>22</v>
-      </c>
-      <c r="P87" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -5115,7 +5109,7 @@
         <v>45067</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
         <v>10</v>
@@ -5127,16 +5121,16 @@
         <v>17000000</v>
       </c>
       <c r="G88" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H88" t="n">
         <v>328</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K88" t="n">
         <v>500</v>
@@ -5148,16 +5142,16 @@
         <v>325</v>
       </c>
       <c r="N88" t="s">
-        <v>40</v>
-      </c>
-      <c r="O88" t="s">
-        <v>22</v>
-      </c>
-      <c r="P88" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -5168,7 +5162,7 @@
         <v>45068</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D89" t="n">
         <v>10</v>
@@ -5180,16 +5174,16 @@
         <v>250000</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H89" t="n">
         <v>50</v>
       </c>
       <c r="I89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K89" t="n">
         <v>500</v>
@@ -5201,16 +5195,16 @@
         <v>46</v>
       </c>
       <c r="N89" t="s">
-        <v>30</v>
-      </c>
-      <c r="O89" t="s">
-        <v>22</v>
-      </c>
-      <c r="P89" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5221,7 +5215,7 @@
         <v>45068</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D90" t="n">
         <v>10</v>
@@ -5233,16 +5227,16 @@
         <v>150000</v>
       </c>
       <c r="G90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H90" t="n">
         <v>45</v>
       </c>
       <c r="I90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K90" t="n">
         <v>500</v>
@@ -5254,16 +5248,16 @@
         <v>40</v>
       </c>
       <c r="N90" t="s">
-        <v>30</v>
-      </c>
-      <c r="O90" t="s">
-        <v>22</v>
-      </c>
-      <c r="P90" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -5274,7 +5268,7 @@
         <v>45068</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -5286,16 +5280,16 @@
         <v>150000</v>
       </c>
       <c r="G91" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H91" t="n">
         <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K91" t="n">
         <v>500</v>
@@ -5307,16 +5301,16 @@
         <v>18</v>
       </c>
       <c r="N91" t="s">
-        <v>30</v>
-      </c>
-      <c r="O91" t="s">
-        <v>22</v>
-      </c>
-      <c r="P91" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -5327,7 +5321,7 @@
         <v>45068</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
@@ -5339,16 +5333,16 @@
         <v>90000</v>
       </c>
       <c r="G92" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H92" t="n">
         <v>22</v>
       </c>
       <c r="I92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J92" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -5360,16 +5354,16 @@
         <v>18</v>
       </c>
       <c r="N92" t="s">
-        <v>30</v>
-      </c>
-      <c r="O92" t="s">
-        <v>22</v>
-      </c>
-      <c r="P92" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -5380,7 +5374,7 @@
         <v>45068</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D93" t="n">
         <v>10</v>
@@ -5392,16 +5386,16 @@
         <v>200000</v>
       </c>
       <c r="G93" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H93" t="n">
         <v>24</v>
       </c>
       <c r="I93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -5413,16 +5407,16 @@
         <v>19</v>
       </c>
       <c r="N93" t="s">
-        <v>30</v>
-      </c>
-      <c r="O93" t="s">
-        <v>22</v>
-      </c>
-      <c r="P93" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -5433,7 +5427,7 @@
         <v>45068</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -5441,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H94" t="n">
         <v>825</v>
@@ -5462,16 +5456,16 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>30</v>
-      </c>
-      <c r="O94" t="s">
-        <v>22</v>
-      </c>
-      <c r="P94" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -5482,7 +5476,7 @@
         <v>45068</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D95" t="n">
         <v>10</v>
@@ -5494,16 +5488,16 @@
         <v>1200001</v>
       </c>
       <c r="G95" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H95" t="n">
         <v>25</v>
       </c>
       <c r="I95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K95" t="n">
         <v>500</v>
@@ -5515,16 +5509,16 @@
         <v>19</v>
       </c>
       <c r="N95" t="s">
-        <v>30</v>
-      </c>
-      <c r="O95" t="s">
-        <v>22</v>
-      </c>
-      <c r="P95" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -5535,7 +5529,7 @@
         <v>45068</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D96" t="n">
         <v>10</v>
@@ -5547,7 +5541,7 @@
         <v>80000</v>
       </c>
       <c r="G96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H96" t="n">
         <v>19</v>
@@ -5568,16 +5562,16 @@
         <v>15</v>
       </c>
       <c r="N96" t="s">
-        <v>30</v>
-      </c>
-      <c r="O96" t="s">
-        <v>22</v>
-      </c>
-      <c r="P96" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5588,7 +5582,7 @@
         <v>45068</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D97" t="n">
         <v>10</v>
@@ -5600,16 +5594,16 @@
         <v>150008</v>
       </c>
       <c r="G97" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H97" t="n">
         <v>55</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97" t="n">
         <v>1000</v>
@@ -5621,16 +5615,16 @@
         <v>46</v>
       </c>
       <c r="N97" t="s">
-        <v>30</v>
-      </c>
-      <c r="O97" t="s">
-        <v>22</v>
-      </c>
-      <c r="P97" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -5641,7 +5635,7 @@
         <v>45068</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D98" t="n">
         <v>10</v>
@@ -5653,16 +5647,16 @@
         <v>140000</v>
       </c>
       <c r="G98" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H98" t="n">
         <v>19</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98" t="n">
         <v>2000</v>
@@ -5674,16 +5668,16 @@
         <v>17</v>
       </c>
       <c r="N98" t="s">
-        <v>30</v>
-      </c>
-      <c r="O98" t="s">
-        <v>22</v>
-      </c>
-      <c r="P98" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -5694,7 +5688,7 @@
         <v>45068</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
         <v>10</v>
@@ -5706,16 +5700,16 @@
         <v>80000</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H99" t="n">
         <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K99" t="n">
         <v>500</v>
@@ -5727,16 +5721,16 @@
         <v>15</v>
       </c>
       <c r="N99" t="s">
-        <v>30</v>
-      </c>
-      <c r="O99" t="s">
-        <v>22</v>
-      </c>
-      <c r="P99" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -5747,7 +5741,7 @@
         <v>45068</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
         <v>10</v>
@@ -5759,16 +5753,16 @@
         <v>100000</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H100" t="n">
         <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K100" t="n">
         <v>500</v>
@@ -5780,16 +5774,16 @@
         <v>12</v>
       </c>
       <c r="N100" t="s">
-        <v>30</v>
-      </c>
-      <c r="O100" t="s">
-        <v>22</v>
-      </c>
-      <c r="P100" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -5800,7 +5794,7 @@
         <v>45068</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D101" t="n">
         <v>10</v>
@@ -5812,16 +5806,16 @@
         <v>150000</v>
       </c>
       <c r="G101" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H101" t="n">
         <v>25</v>
       </c>
       <c r="I101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K101" t="n">
         <v>500</v>
@@ -5833,16 +5827,16 @@
         <v>20</v>
       </c>
       <c r="N101" t="s">
-        <v>30</v>
-      </c>
-      <c r="O101" t="s">
-        <v>22</v>
-      </c>
-      <c r="P101" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -5853,7 +5847,7 @@
         <v>45068</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
@@ -5861,7 +5855,7 @@
         <v>125000</v>
       </c>
       <c r="G102" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H102" t="n">
         <v>28</v>
@@ -5882,16 +5876,16 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>30</v>
-      </c>
-      <c r="O102" t="s">
-        <v>26</v>
-      </c>
-      <c r="P102" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -5902,7 +5896,7 @@
         <v>45068</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D103" t="n">
         <v>10</v>
@@ -5914,16 +5908,16 @@
         <v>180000</v>
       </c>
       <c r="G103" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H103" t="n">
         <v>24</v>
       </c>
       <c r="I103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K103" t="n">
         <v>100</v>
@@ -5935,16 +5929,16 @@
         <v>19</v>
       </c>
       <c r="N103" t="s">
-        <v>30</v>
-      </c>
-      <c r="O103" t="s">
-        <v>22</v>
-      </c>
-      <c r="P103" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -5955,7 +5949,7 @@
         <v>45068</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D104" t="n">
         <v>10</v>
@@ -5967,16 +5961,16 @@
         <v>200000</v>
       </c>
       <c r="G104" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H104" t="n">
         <v>19</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K104" t="n">
         <v>500</v>
@@ -5988,16 +5982,16 @@
         <v>17</v>
       </c>
       <c r="N104" t="s">
-        <v>40</v>
-      </c>
-      <c r="O104" t="s">
-        <v>22</v>
-      </c>
-      <c r="P104" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -6008,7 +6002,7 @@
         <v>45068</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
@@ -6020,16 +6014,16 @@
         <v>150000</v>
       </c>
       <c r="G105" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H105" t="n">
         <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K105" t="n">
         <v>500</v>
@@ -6041,16 +6035,16 @@
         <v>17</v>
       </c>
       <c r="N105" t="s">
-        <v>40</v>
-      </c>
-      <c r="O105" t="s">
-        <v>22</v>
-      </c>
-      <c r="P105" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -6061,7 +6055,7 @@
         <v>45068</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D106" t="n">
         <v>10</v>
@@ -6073,16 +6067,16 @@
         <v>160000</v>
       </c>
       <c r="G106" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H106" t="n">
         <v>25</v>
       </c>
       <c r="I106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K106" t="n">
         <v>1000</v>
@@ -6094,16 +6088,16 @@
         <v>20</v>
       </c>
       <c r="N106" t="s">
-        <v>40</v>
-      </c>
-      <c r="O106" t="s">
-        <v>22</v>
-      </c>
-      <c r="P106" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -6114,7 +6108,7 @@
         <v>45069</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
         <v>10</v>
@@ -6126,16 +6120,16 @@
         <v>160000</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H107" t="n">
         <v>35</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K107" t="n">
         <v>1000</v>
@@ -6147,16 +6141,16 @@
         <v>30</v>
       </c>
       <c r="N107" t="s">
-        <v>30</v>
-      </c>
-      <c r="O107" t="s">
-        <v>22</v>
-      </c>
-      <c r="P107" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -6167,7 +6161,7 @@
         <v>45069</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D108" t="n">
         <v>10</v>
@@ -6179,16 +6173,16 @@
         <v>15000000</v>
       </c>
       <c r="G108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H108" t="n">
         <v>1591</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K108" t="n">
         <v>500</v>
@@ -6200,16 +6194,16 @@
         <v>1509</v>
       </c>
       <c r="N108" t="s">
-        <v>30</v>
-      </c>
-      <c r="O108" t="s">
-        <v>22</v>
-      </c>
-      <c r="P108" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -6220,7 +6214,7 @@
         <v>45069</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D109" t="n">
         <v>10</v>
@@ -6232,16 +6226,16 @@
         <v>140000</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H109" t="n">
         <v>35</v>
       </c>
       <c r="I109" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K109" t="n">
         <v>1000</v>
@@ -6253,16 +6247,16 @@
         <v>30</v>
       </c>
       <c r="N109" t="s">
-        <v>30</v>
-      </c>
-      <c r="O109" t="s">
-        <v>22</v>
-      </c>
-      <c r="P109" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
